--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -32,10 +32,10 @@
     <t>总用例</t>
   </si>
   <si>
-    <t>2020-03-19 17:15:51</t>
-  </si>
-  <si>
-    <t>63秒</t>
+    <t>2020-04-07 16:52:56</t>
+  </si>
+  <si>
+    <t>12秒</t>
   </si>
   <si>
     <t>通过</t>
@@ -83,44 +83,26 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>登录失败</t>
-  </si>
-  <si>
-    <t>testALoginFail</t>
-  </si>
-  <si>
-    <t>打开testerhome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名lose1
-输入密码1231231232
-点击登录
+    <t>test005</t>
+  </si>
+  <si>
+    <t>.net分类下的详情页</t>
+  </si>
+  <si>
+    <t>testAspNet</t>
+  </si>
+  <si>
+    <t>打开博客园</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鼠标悬停到.net分类上
+点击新手区
+获取新手区推荐的第一条数据
+点击新手区推荐的第一条数据
 </t>
   </si>
   <si>
-    <t xml:space="preserve">出现错误的密码登录不成功提示框
-</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>testBLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击登录
-输入用户名haoxiaohui617
-输入密码haitai@123
-点击登录
-点击图像
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查找用户名lose成功
+    <t xml:space="preserve">详情页的标题和历史标题相等
 </t>
   </si>
 </sst>
@@ -282,7 +264,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -345,49 +327,6 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1371600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>707708</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录成功CheckPoint_2_NG.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13096875" y="952500"/>
-          <a:ext cx="1371600" cy="707708"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -731,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -739,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -848,32 +787,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1"/>
     <row r="5" spans="1:10" ht="30" customHeight="1"/>
     <row r="6" spans="1:10" ht="30" customHeight="1"/>
     <row r="7" spans="1:10" ht="30" customHeight="1"/>
@@ -886,6 +800,5 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>